--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_31.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>794800.2926937288</v>
+        <v>790615.4715445596</v>
       </c>
     </row>
     <row r="7">
@@ -1372,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>287.4490784864947</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>331.8218254726373</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>138.7100763593066</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>224.5930458144879</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>227.4528731049589</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>118.1917635269044</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>69.04882666269675</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1827,13 +1827,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>159.4035421198292</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>152.771042824558</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>162.8688728360132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2007,19 +2007,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>53.19117033386421</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>61.19617440684031</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>405.3843525059195</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>155.7114808343872</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>124.9554984777215</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2301,10 +2301,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>68.6498231061877</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>262.1786197024497</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.6420305051924</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>37.62017337824728</v>
       </c>
       <c r="T23" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2529,22 +2529,22 @@
         <v>142.1447028811674</v>
       </c>
       <c r="T25" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>28.25907022944111</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>188.1395708972395</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4005208984156</v>
+        <v>33.60860856554767</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>37.62017337824727</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T26" t="n">
         <v>209.1845183053605</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.54062989624012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0457076940604</v>
+        <v>99.13703743984441</v>
       </c>
       <c r="H28" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>155.4772638884837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,10 +2797,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>278.778267893267</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>252.049806807841</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2885,7 +2885,7 @@
         <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>83.47006257503804</v>
+        <v>83.47006257503806</v>
       </c>
       <c r="H30" t="n">
         <v>31.06956703172742</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.10999954803938</v>
+        <v>43.10999954803939</v>
       </c>
       <c r="T30" t="n">
         <v>124.5995722140058</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>61.01901167430096</v>
+        <v>16.13626634197911</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>176.6977768697161</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6001441286783</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3034,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>261.6031361728371</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>37.62017337824728</v>
       </c>
       <c r="T32" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>210.6142878392642</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.0457076940604</v>
       </c>
       <c r="H34" t="n">
-        <v>60.38233927616968</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>92.70995943003052</v>
       </c>
       <c r="U34" t="n">
         <v>275.6001441286783</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86.16975849111776</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>71.22878194379571</v>
       </c>
       <c r="H35" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.13626634198009</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U37" t="n">
         <v>275.6001441286783</v>
       </c>
       <c r="V37" t="n">
-        <v>185.1835857893108</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>299.5458511350215</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H38" t="n">
-        <v>265.9270524809863</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>52.13012156263564</v>
       </c>
     </row>
     <row r="39">
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>120.5041685050618</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>130.593315014692</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.13626634198009</v>
       </c>
       <c r="T40" t="n">
         <v>239.619400782111</v>
@@ -3720,7 +3720,7 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.44192088226315</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3751,10 +3751,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>262.1786197024501</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.62017337824728</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T41" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.0457076940604</v>
@@ -3918,7 +3918,7 @@
         <v>130.593315014692</v>
       </c>
       <c r="I43" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.1447028811674</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.619400782111</v>
@@ -3957,10 +3957,10 @@
         <v>275.6001441286783</v>
       </c>
       <c r="V43" t="n">
-        <v>247.6656059934649</v>
+        <v>6.583196681501611</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>175.4774883364733</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U44" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>207.8114867710203</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>82.29476655949784</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>29.32881984772025</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H46" t="n">
         <v>130.593315014692</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>765.4265856715598</v>
+        <v>1655.935061595082</v>
       </c>
       <c r="C11" t="n">
-        <v>765.4265856715598</v>
+        <v>1217.792588778505</v>
       </c>
       <c r="D11" t="n">
-        <v>475.073981139747</v>
+        <v>781.8828039529496</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>781.8828039529496</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895472</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>118.406501800135</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435803</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447736</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="V11" t="n">
-        <v>1997.710627381563</v>
+        <v>2060.790516184049</v>
       </c>
       <c r="W11" t="n">
-        <v>1592.855172792596</v>
+        <v>1655.935061595082</v>
       </c>
       <c r="X11" t="n">
-        <v>1173.712709371906</v>
+        <v>1655.935061595082</v>
       </c>
       <c r="Y11" t="n">
-        <v>765.4265856715598</v>
+        <v>1655.935061595082</v>
       </c>
     </row>
     <row r="12">
@@ -5099,43 +5099,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043032</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>758.6107344189456</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C13" t="n">
-        <v>586.0490229021706</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D13" t="n">
-        <v>420.1710301036933</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E13" t="n">
-        <v>250.4130263544305</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F13" t="n">
-        <v>250.4130263544305</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G13" t="n">
         <v>110.3018381127067</v>
@@ -5196,55 +5196,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511378</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M13" t="n">
-        <v>910.9641928553085</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N13" t="n">
-        <v>1480.721907816843</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1695.267182904121</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W13" t="n">
-        <v>1423.240778490412</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X13" t="n">
-        <v>1177.849023823825</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.4293531379328</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1308.351417301975</v>
+        <v>1474.419173756938</v>
       </c>
       <c r="C14" t="n">
-        <v>1308.351417301975</v>
+        <v>1036.276700940361</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>600.3669161148055</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>166.5921712731006</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.24425759636</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W14" t="n">
-        <v>1957.24425759636</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X14" t="n">
-        <v>1538.10179417567</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y14" t="n">
-        <v>1538.10179417567</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="15">
@@ -5336,25 +5336,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.0748969752678</v>
+        <v>727.0944902899325</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5131854584928</v>
+        <v>554.5327787731575</v>
       </c>
       <c r="D16" t="n">
-        <v>456.7668959002132</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="E16" t="n">
-        <v>287.0088921509505</v>
+        <v>388.6547859746802</v>
       </c>
       <c r="F16" t="n">
-        <v>110.3018381127067</v>
+        <v>211.9477319364364</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>358.0754347909402</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M16" t="n">
-        <v>550.4276429928783</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954412</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1391.724534361399</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1146.332779694812</v>
       </c>
       <c r="Y16" t="n">
-        <v>890.893515694255</v>
+        <v>918.9131090089197</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>870.7449789968379</v>
+        <v>1485.27551347728</v>
       </c>
       <c r="C17" t="n">
-        <v>870.7449789968379</v>
+        <v>1047.133040660703</v>
       </c>
       <c r="D17" t="n">
-        <v>870.7449789968379</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="E17" t="n">
-        <v>716.4307943255671</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>211.7205645146246</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>2060.790516184047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V17" t="n">
-        <v>1698.173566117874</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W17" t="n">
-        <v>1698.173566117874</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X17" t="n">
-        <v>1279.031102697184</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y17" t="n">
-        <v>870.7449789968379</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>1119.791305117177</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>762.8256627965027</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>730.8830127630988</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>765.099748934575</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>858.9930882810421</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>1019.471760335212</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>1487.064164512932</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.990728248782</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>2360.327577447736</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>2315.70654684747</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.0817647851411</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268366</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D19" t="n">
-        <v>443.520053268366</v>
+        <v>277.6420604698897</v>
       </c>
       <c r="E19" t="n">
-        <v>273.7620495191033</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>273.7620495191033</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G19" t="n">
-        <v>109.0208691316217</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511378</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>744.9929992049549</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>992.686446150523</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954412</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
         <v>2118.080353351143</v>
@@ -5709,16 +5709,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V19" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>1035.32005419002</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041283</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>894.8281683109047</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="C20" t="n">
-        <v>456.6856954943281</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
-        <v>456.6856954943281</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895472</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867023</v>
@@ -5767,37 +5767,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>2148.556325916848</v>
+        <v>2162.576883587396</v>
       </c>
       <c r="X20" t="n">
-        <v>1729.413862496159</v>
+        <v>1743.434420166706</v>
       </c>
       <c r="Y20" t="n">
-        <v>1321.127738795813</v>
+        <v>1335.14829646636</v>
       </c>
     </row>
     <row r="21">
@@ -5810,43 +5810,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210689</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960912</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.3877032987884</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
         <v>1488.088567599445</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>919.7301297068562</v>
+        <v>858.3289888817353</v>
       </c>
       <c r="C22" t="n">
-        <v>919.7301297068562</v>
+        <v>685.7672773649603</v>
       </c>
       <c r="D22" t="n">
-        <v>753.852136908379</v>
+        <v>519.889284566483</v>
       </c>
       <c r="E22" t="n">
-        <v>584.0941331591162</v>
+        <v>350.1312808172202</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>173.4242267789764</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>1106.33113894078</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M22" t="n">
-        <v>1236.93553127931</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N22" t="n">
-        <v>1364.434443083199</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>2081.94094549648</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1794.98543736691</v>
       </c>
       <c r="W22" t="n">
-        <v>1408.311674774551</v>
+        <v>1522.959032953202</v>
       </c>
       <c r="X22" t="n">
-        <v>1338.968419111735</v>
+        <v>1277.567278286614</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.548748425843</v>
+        <v>1050.147607600722</v>
       </c>
     </row>
     <row r="23">
@@ -5965,46 +5965,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1155.627885781446</v>
+        <v>1622.556743324965</v>
       </c>
       <c r="C23" t="n">
-        <v>1155.627885781446</v>
+        <v>1184.414270508389</v>
       </c>
       <c r="D23" t="n">
-        <v>1155.627885781446</v>
+        <v>748.5044856828331</v>
       </c>
       <c r="E23" t="n">
-        <v>721.8531409397415</v>
+        <v>314.7297408411283</v>
       </c>
       <c r="F23" t="n">
-        <v>293.9857113489492</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="G23" t="n">
-        <v>293.9857113489492</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H23" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I23" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J23" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K23" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L23" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M23" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N23" t="n">
         <v>1546.586139125324</v>
       </c>
       <c r="O23" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P23" t="n">
         <v>2159.767192776932</v>
@@ -6016,25 +6016,25 @@
         <v>2495.142612639762</v>
       </c>
       <c r="S23" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T23" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U23" t="n">
-        <v>1986.782910855321</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="V23" t="n">
-        <v>1986.782910855321</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="W23" t="n">
-        <v>1581.927456266354</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="X23" t="n">
-        <v>1581.927456266354</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="Y23" t="n">
-        <v>1581.927456266354</v>
+        <v>2048.856313809873</v>
       </c>
     </row>
     <row r="24">
@@ -6059,13 +6059,13 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G24" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H24" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I24" t="n">
-        <v>86.07360363779618</v>
+        <v>86.0736036377962</v>
       </c>
       <c r="J24" t="n">
         <v>185.3289100816567</v>
@@ -6083,10 +6083,10 @@
         <v>1122.501559119456</v>
       </c>
       <c r="O24" t="n">
-        <v>1372.457578276418</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P24" t="n">
-        <v>1573.069320161789</v>
+        <v>1478.086684138829</v>
       </c>
       <c r="Q24" t="n">
         <v>1612.190320866098</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>923.2900493770524</v>
+        <v>1093.048053126315</v>
       </c>
       <c r="C25" t="n">
-        <v>750.7283378602773</v>
+        <v>920.4863416095401</v>
       </c>
       <c r="D25" t="n">
-        <v>584.8503450618</v>
+        <v>754.6083488110628</v>
       </c>
       <c r="E25" t="n">
         <v>584.8503450618</v>
@@ -6144,31 +6144,31 @@
         <v>111.538217580372</v>
       </c>
       <c r="I25" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J25" t="n">
-        <v>198.7521269616892</v>
+        <v>112.1724417969994</v>
       </c>
       <c r="K25" t="n">
-        <v>301.080191044874</v>
+        <v>489.2589604513198</v>
       </c>
       <c r="L25" t="n">
-        <v>432.024882751948</v>
+        <v>1038.413533926355</v>
       </c>
       <c r="M25" t="n">
-        <v>1029.571567537427</v>
+        <v>1176.476351530921</v>
       </c>
       <c r="N25" t="n">
-        <v>1236.39693595993</v>
+        <v>1311.256343918421</v>
       </c>
       <c r="O25" t="n">
-        <v>1780.557322929479</v>
+        <v>1855.416730887971</v>
       </c>
       <c r="P25" t="n">
-        <v>2234.587891748232</v>
+        <v>2309.447299706724</v>
       </c>
       <c r="Q25" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R25" t="n">
         <v>2495.142612639762</v>
@@ -6177,22 +6177,22 @@
         <v>2351.562104678987</v>
       </c>
       <c r="T25" t="n">
-        <v>2109.522305909177</v>
+        <v>2351.562104678987</v>
       </c>
       <c r="U25" t="n">
-        <v>2109.522305909177</v>
+        <v>2073.178120710625</v>
       </c>
       <c r="V25" t="n">
-        <v>1822.566797779608</v>
+        <v>1786.222612581056</v>
       </c>
       <c r="W25" t="n">
-        <v>1550.540393365899</v>
+        <v>1757.678097197782</v>
       </c>
       <c r="X25" t="n">
-        <v>1305.148638699312</v>
+        <v>1512.286342531194</v>
       </c>
       <c r="Y25" t="n">
-        <v>1115.10866809604</v>
+        <v>1284.866671845302</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1321.214535465032</v>
+        <v>1819.545373787574</v>
       </c>
       <c r="C26" t="n">
-        <v>883.0720626484552</v>
+        <v>1381.402900970997</v>
       </c>
       <c r="D26" t="n">
-        <v>883.0720626484552</v>
+        <v>945.4931161454415</v>
       </c>
       <c r="E26" t="n">
-        <v>449.2973178067504</v>
+        <v>511.7183713037367</v>
       </c>
       <c r="F26" t="n">
-        <v>449.2973178067504</v>
+        <v>83.8509417129444</v>
       </c>
       <c r="G26" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H26" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I26" t="n">
-        <v>125.1921461296497</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J26" t="n">
-        <v>291.8416560478772</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K26" t="n">
-        <v>541.6060719863824</v>
+        <v>541.6060719863822</v>
       </c>
       <c r="L26" t="n">
-        <v>851.4609156385208</v>
+        <v>851.4609156385204</v>
       </c>
       <c r="M26" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N26" t="n">
         <v>1546.586139125324</v>
       </c>
       <c r="O26" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P26" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q26" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R26" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S26" t="n">
-        <v>2457.14243751022</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T26" t="n">
-        <v>2245.844944272482</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="U26" t="n">
-        <v>2245.844944272482</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="V26" t="n">
-        <v>2245.844944272482</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="W26" t="n">
-        <v>1840.989489683516</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="X26" t="n">
-        <v>1840.989489683516</v>
+        <v>2245.844944272481</v>
       </c>
       <c r="Y26" t="n">
-        <v>1747.51410594994</v>
+        <v>2245.844944272481</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G27" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H27" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I27" t="n">
-        <v>86.07360363779621</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J27" t="n">
-        <v>185.3289100816568</v>
+        <v>90.3462740586958</v>
       </c>
       <c r="K27" t="n">
-        <v>354.9720379468262</v>
+        <v>259.9894019238652</v>
       </c>
       <c r="L27" t="n">
-        <v>583.078158623829</v>
+        <v>488.0955226008679</v>
       </c>
       <c r="M27" t="n">
-        <v>754.2846063602948</v>
+        <v>754.2846063602951</v>
       </c>
       <c r="N27" t="n">
         <v>1027.518923096495</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>923.2900493770524</v>
+        <v>834.9460360119626</v>
       </c>
       <c r="C28" t="n">
-        <v>750.7283378602773</v>
+        <v>662.3843244951876</v>
       </c>
       <c r="D28" t="n">
-        <v>584.8503450618</v>
+        <v>496.5063316967103</v>
       </c>
       <c r="E28" t="n">
-        <v>584.8503450618</v>
+        <v>326.7483279474475</v>
       </c>
       <c r="F28" t="n">
-        <v>408.1432910235562</v>
+        <v>150.0412739092037</v>
       </c>
       <c r="G28" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H28" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I28" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J28" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K28" t="n">
-        <v>214.5005058801842</v>
+        <v>301.080191044874</v>
       </c>
       <c r="L28" t="n">
-        <v>345.4451975872582</v>
+        <v>432.024882751948</v>
       </c>
       <c r="M28" t="n">
-        <v>942.9918823727375</v>
+        <v>1006.865034385126</v>
       </c>
       <c r="N28" t="n">
-        <v>1520.030677917882</v>
+        <v>1583.903829930271</v>
       </c>
       <c r="O28" t="n">
-        <v>2064.191064887432</v>
+        <v>2128.064216899821</v>
       </c>
       <c r="P28" t="n">
-        <v>2402.780666612565</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q28" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R28" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S28" t="n">
         <v>2351.562104678987</v>
       </c>
       <c r="T28" t="n">
-        <v>2109.522305909178</v>
+        <v>2109.522305909177</v>
       </c>
       <c r="U28" t="n">
-        <v>1831.138321940816</v>
+        <v>1831.138321940815</v>
       </c>
       <c r="V28" t="n">
-        <v>1544.182813811247</v>
+        <v>1544.182813811246</v>
       </c>
       <c r="W28" t="n">
-        <v>1272.156409397538</v>
+        <v>1272.156409397537</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.156409397538</v>
+        <v>1026.76465473095</v>
       </c>
       <c r="Y28" t="n">
-        <v>1115.10866809604</v>
+        <v>1026.76465473095</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1192.568294219156</v>
+        <v>1203.414279904276</v>
       </c>
       <c r="C29" t="n">
-        <v>754.4258214025795</v>
+        <v>765.271807087699</v>
       </c>
       <c r="D29" t="n">
-        <v>318.5160365770239</v>
+        <v>483.6775970945001</v>
       </c>
       <c r="E29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="F29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="G29" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="H29" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I29" t="n">
-        <v>125.19214612965</v>
+        <v>125.1921461296492</v>
       </c>
       <c r="J29" t="n">
-        <v>291.8416560478774</v>
+        <v>291.8416560478767</v>
       </c>
       <c r="K29" t="n">
-        <v>541.6060719863829</v>
+        <v>541.6060719863821</v>
       </c>
       <c r="L29" t="n">
-        <v>851.4609156385212</v>
+        <v>851.4609156385203</v>
       </c>
       <c r="M29" t="n">
-        <v>1196.234131838217</v>
+        <v>1196.234131838216</v>
       </c>
       <c r="N29" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O29" t="n">
-        <v>1877.413604793269</v>
+        <v>1877.413604793268</v>
       </c>
       <c r="P29" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q29" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R29" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S29" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="T29" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="U29" t="n">
-        <v>2236.080579222602</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="V29" t="n">
-        <v>1873.463629156428</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="W29" t="n">
-        <v>1873.463629156428</v>
+        <v>2457.142437510219</v>
       </c>
       <c r="X29" t="n">
-        <v>1873.463629156428</v>
+        <v>2037.99997408953</v>
       </c>
       <c r="Y29" t="n">
-        <v>1618.867864704064</v>
+        <v>1629.713850389183</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G30" t="n">
-        <v>81.28625329494416</v>
+        <v>81.28625329494415</v>
       </c>
       <c r="H30" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="I30" t="n">
-        <v>86.07360363779621</v>
+        <v>86.07360363779618</v>
       </c>
       <c r="J30" t="n">
         <v>185.3289100816567</v>
       </c>
       <c r="K30" t="n">
-        <v>354.9720379468262</v>
+        <v>354.9720379468261</v>
       </c>
       <c r="L30" t="n">
-        <v>488.0955226008679</v>
+        <v>583.0781586238288</v>
       </c>
       <c r="M30" t="n">
-        <v>754.2846063602951</v>
+        <v>849.2672423832558</v>
       </c>
       <c r="N30" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O30" t="n">
         <v>1277.474942253456</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1093.048053126315</v>
+        <v>751.1068732868462</v>
       </c>
       <c r="C31" t="n">
-        <v>920.4863416095401</v>
+        <v>578.5451617700711</v>
       </c>
       <c r="D31" t="n">
-        <v>754.6083488110628</v>
+        <v>412.6671689715938</v>
       </c>
       <c r="E31" t="n">
-        <v>584.8503450618</v>
+        <v>242.9091652223311</v>
       </c>
       <c r="F31" t="n">
-        <v>408.1432910235562</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="G31" t="n">
-        <v>243.4506569891518</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="H31" t="n">
-        <v>111.538217580372</v>
+        <v>66.20211118408727</v>
       </c>
       <c r="I31" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279524</v>
       </c>
       <c r="J31" t="n">
         <v>112.1724417969994</v>
       </c>
       <c r="K31" t="n">
-        <v>214.5005058801842</v>
+        <v>214.5005058801841</v>
       </c>
       <c r="L31" t="n">
-        <v>345.4451975872581</v>
+        <v>689.4880976745507</v>
       </c>
       <c r="M31" t="n">
-        <v>942.9918823727373</v>
+        <v>827.5509152791169</v>
       </c>
       <c r="N31" t="n">
-        <v>1520.030677917882</v>
+        <v>1404.589710824262</v>
       </c>
       <c r="O31" t="n">
-        <v>2064.191064887432</v>
+        <v>1948.750097793811</v>
       </c>
       <c r="P31" t="n">
-        <v>2402.780666612565</v>
+        <v>2402.780666612564</v>
       </c>
       <c r="Q31" t="n">
-        <v>2476.532137525727</v>
+        <v>2476.532137525726</v>
       </c>
       <c r="R31" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S31" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T31" t="n">
-        <v>2316.66000974106</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U31" t="n">
-        <v>2316.66000974106</v>
+        <v>1974.718829901591</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.70450161149</v>
+        <v>1687.763321772021</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.678097197782</v>
+        <v>1415.736917358313</v>
       </c>
       <c r="X31" t="n">
-        <v>1512.286342531194</v>
+        <v>1170.345162691725</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.866671845302</v>
+        <v>942.9254920058333</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.90285225279526</v>
+        <v>1611.700403604623</v>
       </c>
       <c r="C32" t="n">
-        <v>49.90285225279526</v>
+        <v>1611.700403604623</v>
       </c>
       <c r="D32" t="n">
-        <v>49.90285225279526</v>
+        <v>1175.790618779067</v>
       </c>
       <c r="E32" t="n">
-        <v>49.90285225279526</v>
+        <v>742.0158739373624</v>
       </c>
       <c r="F32" t="n">
-        <v>49.90285225279526</v>
+        <v>314.1484443465701</v>
       </c>
       <c r="G32" t="n">
-        <v>49.90285225279526</v>
+        <v>314.1484443465701</v>
       </c>
       <c r="H32" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I32" t="n">
-        <v>125.1921461296506</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J32" t="n">
-        <v>291.8416560478781</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K32" t="n">
-        <v>541.6060719863834</v>
+        <v>541.6060719863825</v>
       </c>
       <c r="L32" t="n">
-        <v>851.4609156385217</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M32" t="n">
-        <v>1196.234131838218</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N32" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O32" t="n">
         <v>1877.413604793269</v>
       </c>
       <c r="P32" t="n">
-        <v>2159.767192776933</v>
+        <v>2159.767192776932</v>
       </c>
       <c r="Q32" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R32" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S32" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T32" t="n">
-        <v>2283.845119402025</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U32" t="n">
-        <v>2071.103414513879</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="V32" t="n">
-        <v>1708.486464447706</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="W32" t="n">
-        <v>1303.631009858739</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="X32" t="n">
-        <v>884.4885464380496</v>
+        <v>2037.99997408953</v>
       </c>
       <c r="Y32" t="n">
-        <v>476.202422737703</v>
+        <v>2037.99997408953</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>81.28625329494416</v>
       </c>
       <c r="H33" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I33" t="n">
-        <v>49.90285225279526</v>
+        <v>86.0736036377962</v>
       </c>
       <c r="J33" t="n">
         <v>90.3462740586958</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.566164095881</v>
+        <v>899.5002483899586</v>
       </c>
       <c r="C34" t="n">
-        <v>849.566164095881</v>
+        <v>726.9385368731836</v>
       </c>
       <c r="D34" t="n">
-        <v>683.6881712974038</v>
+        <v>561.0605440747063</v>
       </c>
       <c r="E34" t="n">
-        <v>513.9301675481411</v>
+        <v>391.3025403254435</v>
       </c>
       <c r="F34" t="n">
-        <v>337.2231135098973</v>
+        <v>214.5954862871997</v>
       </c>
       <c r="G34" t="n">
-        <v>172.5304794754929</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="H34" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="I34" t="n">
-        <v>49.90285225279526</v>
+        <v>49.90285225279525</v>
       </c>
       <c r="J34" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K34" t="n">
-        <v>214.5005058801842</v>
+        <v>575.8386456160097</v>
       </c>
       <c r="L34" t="n">
-        <v>763.6550793552192</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M34" t="n">
-        <v>901.7178969597854</v>
+        <v>1263.056036695611</v>
       </c>
       <c r="N34" t="n">
-        <v>1478.75669250493</v>
+        <v>1397.836029083111</v>
       </c>
       <c r="O34" t="n">
-        <v>2022.91707947448</v>
+        <v>1780.557322929479</v>
       </c>
       <c r="P34" t="n">
-        <v>2402.780666612565</v>
+        <v>2234.587891748232</v>
       </c>
       <c r="Q34" t="n">
         <v>2476.532137525727</v>
       </c>
       <c r="R34" t="n">
-        <v>2495.142612639763</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639762</v>
       </c>
       <c r="T34" t="n">
-        <v>2351.562104678987</v>
+        <v>2401.496188973065</v>
       </c>
       <c r="U34" t="n">
-        <v>2073.178120710626</v>
+        <v>2123.112205004703</v>
       </c>
       <c r="V34" t="n">
-        <v>1786.222612581056</v>
+        <v>1836.156696875134</v>
       </c>
       <c r="W34" t="n">
-        <v>1514.196208167348</v>
+        <v>1564.130292461425</v>
       </c>
       <c r="X34" t="n">
-        <v>1268.80445350076</v>
+        <v>1318.738537794838</v>
       </c>
       <c r="Y34" t="n">
-        <v>1041.384782814868</v>
+        <v>1091.318867108946</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.343039060861</v>
+        <v>1857.545548917117</v>
       </c>
       <c r="C35" t="n">
-        <v>1188.200566244284</v>
+        <v>1419.403076100541</v>
       </c>
       <c r="D35" t="n">
-        <v>752.2907814187288</v>
+        <v>983.493291274985</v>
       </c>
       <c r="E35" t="n">
-        <v>318.5160365770239</v>
+        <v>549.7185464332802</v>
       </c>
       <c r="F35" t="n">
-        <v>318.5160365770239</v>
+        <v>121.8511168424879</v>
       </c>
       <c r="G35" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H35" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I35" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296497</v>
       </c>
       <c r="J35" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K35" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L35" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M35" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N35" t="n">
         <v>1546.586139125324</v>
       </c>
       <c r="O35" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P35" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q35" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R35" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S35" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T35" t="n">
-        <v>2495.142612639762</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="U35" t="n">
-        <v>2495.142612639762</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="V35" t="n">
-        <v>2132.525662573588</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="W35" t="n">
-        <v>2132.525662573588</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="X35" t="n">
-        <v>1713.383199152899</v>
+        <v>2283.845119402025</v>
       </c>
       <c r="Y35" t="n">
-        <v>1713.383199152899</v>
+        <v>2283.845119402025</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G36" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H36" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I36" t="n">
-        <v>49.90285225279524</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1581586966558</v>
+        <v>90.34627405869539</v>
       </c>
       <c r="K36" t="n">
-        <v>318.8012865618251</v>
+        <v>259.9894019238648</v>
       </c>
       <c r="L36" t="n">
-        <v>546.9074072388279</v>
+        <v>488.0955226008676</v>
       </c>
       <c r="M36" t="n">
-        <v>813.0964909982551</v>
+        <v>754.2846063602948</v>
       </c>
       <c r="N36" t="n">
-        <v>1086.330807734455</v>
+        <v>1027.518923096495</v>
       </c>
       <c r="O36" t="n">
-        <v>1336.286826891416</v>
+        <v>1277.474942253456</v>
       </c>
       <c r="P36" t="n">
         <v>1478.086684138829</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1093.048053126315</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C37" t="n">
-        <v>920.4863416095401</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D37" t="n">
-        <v>754.6083488110628</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E37" t="n">
-        <v>584.8503450618</v>
+        <v>226.6099062910391</v>
       </c>
       <c r="F37" t="n">
-        <v>408.1432910235562</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="G37" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H37" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I37" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J37" t="n">
-        <v>112.1724417969994</v>
+        <v>198.7521269616892</v>
       </c>
       <c r="K37" t="n">
-        <v>214.5005058801842</v>
+        <v>414.3995524928291</v>
       </c>
       <c r="L37" t="n">
-        <v>689.4880976745507</v>
+        <v>963.5541259678643</v>
       </c>
       <c r="M37" t="n">
-        <v>827.5509152791169</v>
+        <v>1101.616943572431</v>
       </c>
       <c r="N37" t="n">
-        <v>1404.589710824262</v>
+        <v>1236.396935959931</v>
       </c>
       <c r="O37" t="n">
-        <v>1948.750097793811</v>
+        <v>1780.55732292948</v>
       </c>
       <c r="P37" t="n">
-        <v>2402.780666612564</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q37" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R37" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S37" t="n">
-        <v>2495.142612639762</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T37" t="n">
-        <v>2495.142612639762</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U37" t="n">
-        <v>2216.7586286714</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.70450161149</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.678097197782</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X37" t="n">
-        <v>1512.286342531194</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.866671845302</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>756.6585093936005</v>
+        <v>1757.124320290587</v>
       </c>
       <c r="C38" t="n">
-        <v>318.5160365770239</v>
+        <v>1318.981847474011</v>
       </c>
       <c r="D38" t="n">
-        <v>318.5160365770239</v>
+        <v>883.0720626484552</v>
       </c>
       <c r="E38" t="n">
-        <v>318.5160365770239</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="F38" t="n">
-        <v>318.5160365770239</v>
+        <v>449.2973178067504</v>
       </c>
       <c r="G38" t="n">
-        <v>318.5160365770239</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H38" t="n">
         <v>49.90285225279526</v>
@@ -7174,52 +7174,52 @@
         <v>125.1921461296497</v>
       </c>
       <c r="J38" t="n">
-        <v>291.8416560478776</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K38" t="n">
-        <v>541.6060719863831</v>
+        <v>541.6060719863824</v>
       </c>
       <c r="L38" t="n">
-        <v>851.4609156385214</v>
+        <v>851.4609156385208</v>
       </c>
       <c r="M38" t="n">
         <v>1196.234131838217</v>
       </c>
       <c r="N38" t="n">
-        <v>1546.586139125325</v>
+        <v>1546.586139125324</v>
       </c>
       <c r="O38" t="n">
-        <v>1877.41360479327</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P38" t="n">
         <v>2159.767192776933</v>
       </c>
       <c r="Q38" t="n">
-        <v>2371.80297844897</v>
+        <v>2371.802978448969</v>
       </c>
       <c r="R38" t="n">
         <v>2495.142612639763</v>
       </c>
       <c r="S38" t="n">
-        <v>2457.14243751022</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T38" t="n">
-        <v>2245.844944272482</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="U38" t="n">
-        <v>2245.844944272482</v>
+        <v>2236.080579222602</v>
       </c>
       <c r="V38" t="n">
-        <v>1883.227994206309</v>
+        <v>2236.080579222602</v>
       </c>
       <c r="W38" t="n">
-        <v>1478.372539617342</v>
+        <v>2236.080579222602</v>
       </c>
       <c r="X38" t="n">
-        <v>1059.230076196653</v>
+        <v>2236.080579222602</v>
       </c>
       <c r="Y38" t="n">
-        <v>1059.230076196653</v>
+        <v>2183.423890775495</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>49.90285225279526</v>
       </c>
       <c r="I39" t="n">
-        <v>49.90285225279526</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J39" t="n">
-        <v>90.3462740586958</v>
+        <v>185.3289100816568</v>
       </c>
       <c r="K39" t="n">
-        <v>259.9894019238652</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L39" t="n">
-        <v>488.0955226008679</v>
+        <v>583.078158623829</v>
       </c>
       <c r="M39" t="n">
-        <v>754.2846063602951</v>
+        <v>849.2672423832562</v>
       </c>
       <c r="N39" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O39" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P39" t="n">
         <v>1478.086684138829</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1038.062381416417</v>
+        <v>734.8076143555542</v>
       </c>
       <c r="C40" t="n">
-        <v>865.5006698996416</v>
+        <v>562.2459028387791</v>
       </c>
       <c r="D40" t="n">
-        <v>699.6226771011643</v>
+        <v>396.3679100403018</v>
       </c>
       <c r="E40" t="n">
-        <v>529.8646733519015</v>
+        <v>226.6099062910391</v>
       </c>
       <c r="F40" t="n">
-        <v>408.1432910235562</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="G40" t="n">
-        <v>243.4506569891518</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H40" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I40" t="n">
         <v>49.90285225279526</v>
@@ -7335,22 +7335,22 @@
         <v>198.7521269616892</v>
       </c>
       <c r="K40" t="n">
-        <v>575.8386456160097</v>
+        <v>301.080191044874</v>
       </c>
       <c r="L40" t="n">
-        <v>706.7833373230836</v>
+        <v>432.024882751948</v>
       </c>
       <c r="M40" t="n">
-        <v>1304.330022108563</v>
+        <v>1029.571567537427</v>
       </c>
       <c r="N40" t="n">
-        <v>1881.368817653708</v>
+        <v>1606.610363082572</v>
       </c>
       <c r="O40" t="n">
-        <v>2005.859955397476</v>
+        <v>2150.770750052121</v>
       </c>
       <c r="P40" t="n">
-        <v>2234.587891748233</v>
+        <v>2402.780666612565</v>
       </c>
       <c r="Q40" t="n">
         <v>2476.532137525727</v>
@@ -7359,25 +7359,25 @@
         <v>2495.142612639763</v>
       </c>
       <c r="S40" t="n">
-        <v>2495.142612639763</v>
+        <v>2478.84335370847</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.102813869953</v>
+        <v>2236.80355493866</v>
       </c>
       <c r="U40" t="n">
-        <v>1974.718829901592</v>
+        <v>1958.419570970299</v>
       </c>
       <c r="V40" t="n">
-        <v>1974.718829901592</v>
+        <v>1671.464062840729</v>
       </c>
       <c r="W40" t="n">
-        <v>1702.692425487883</v>
+        <v>1399.437658427021</v>
       </c>
       <c r="X40" t="n">
-        <v>1457.300670821296</v>
+        <v>1154.045903760433</v>
       </c>
       <c r="Y40" t="n">
-        <v>1229.881000135404</v>
+        <v>926.6262330745412</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1785.597284327424</v>
+        <v>1622.556743324966</v>
       </c>
       <c r="C41" t="n">
-        <v>1347.454811510848</v>
+        <v>1184.414270508389</v>
       </c>
       <c r="D41" t="n">
-        <v>911.5450266852923</v>
+        <v>748.5044856828335</v>
       </c>
       <c r="E41" t="n">
-        <v>477.7702818435875</v>
+        <v>314.7297408411287</v>
       </c>
       <c r="F41" t="n">
-        <v>49.90285225279524</v>
+        <v>314.7297408411287</v>
       </c>
       <c r="G41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="H41" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I41" t="n">
-        <v>125.1921461296492</v>
+        <v>125.1921461296498</v>
       </c>
       <c r="J41" t="n">
-        <v>291.8416560478766</v>
+        <v>291.8416560478772</v>
       </c>
       <c r="K41" t="n">
-        <v>541.6060719863819</v>
+        <v>541.6060719863826</v>
       </c>
       <c r="L41" t="n">
-        <v>851.4609156385203</v>
+        <v>851.4609156385209</v>
       </c>
       <c r="M41" t="n">
-        <v>1196.234131838216</v>
+        <v>1196.234131838217</v>
       </c>
       <c r="N41" t="n">
         <v>1546.586139125324</v>
       </c>
       <c r="O41" t="n">
-        <v>1877.413604793268</v>
+        <v>1877.413604793269</v>
       </c>
       <c r="P41" t="n">
-        <v>2159.767192776932</v>
+        <v>2159.767192776933</v>
       </c>
       <c r="Q41" t="n">
         <v>2371.802978448969</v>
       </c>
       <c r="R41" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S41" t="n">
-        <v>2457.142437510219</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T41" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="U41" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="V41" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="W41" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="X41" t="n">
-        <v>2245.844944272481</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="Y41" t="n">
-        <v>1837.558820572135</v>
+        <v>2048.856313809873</v>
       </c>
     </row>
     <row r="42">
@@ -7481,34 +7481,34 @@
         <v>165.5994478151846</v>
       </c>
       <c r="G42" t="n">
-        <v>81.28625329494415</v>
+        <v>81.28625329494416</v>
       </c>
       <c r="H42" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I42" t="n">
-        <v>86.07360363779618</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J42" t="n">
-        <v>185.3289100816567</v>
+        <v>185.3289100816568</v>
       </c>
       <c r="K42" t="n">
-        <v>354.9720379468261</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L42" t="n">
-        <v>488.0955226008679</v>
+        <v>583.078158623829</v>
       </c>
       <c r="M42" t="n">
-        <v>754.2846063602951</v>
+        <v>849.2672423832562</v>
       </c>
       <c r="N42" t="n">
-        <v>1027.518923096495</v>
+        <v>1122.501559119456</v>
       </c>
       <c r="O42" t="n">
-        <v>1277.474942253456</v>
+        <v>1372.457578276418</v>
       </c>
       <c r="P42" t="n">
-        <v>1478.086684138829</v>
+        <v>1573.06932016179</v>
       </c>
       <c r="Q42" t="n">
         <v>1612.190320866098</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>916.3409990880713</v>
+        <v>1031.412687798738</v>
       </c>
       <c r="C43" t="n">
-        <v>743.7792875712962</v>
+        <v>858.8509762819632</v>
       </c>
       <c r="D43" t="n">
-        <v>577.9012947728189</v>
+        <v>692.9729834834859</v>
       </c>
       <c r="E43" t="n">
-        <v>408.1432910235562</v>
+        <v>523.2149797342232</v>
       </c>
       <c r="F43" t="n">
-        <v>408.1432910235562</v>
+        <v>346.5079256959795</v>
       </c>
       <c r="G43" t="n">
-        <v>243.4506569891518</v>
+        <v>181.815291661575</v>
       </c>
       <c r="H43" t="n">
-        <v>111.538217580372</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="I43" t="n">
-        <v>49.90285225279524</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="J43" t="n">
         <v>112.1724417969994</v>
@@ -7575,46 +7575,46 @@
         <v>214.5005058801842</v>
       </c>
       <c r="L43" t="n">
-        <v>763.6550793552192</v>
+        <v>689.4880976745516</v>
       </c>
       <c r="M43" t="n">
-        <v>1361.201764140698</v>
+        <v>827.5509152791178</v>
       </c>
       <c r="N43" t="n">
-        <v>1938.240559685843</v>
+        <v>1404.589710824263</v>
       </c>
       <c r="O43" t="n">
-        <v>2296.256991764153</v>
+        <v>1948.750097793812</v>
       </c>
       <c r="P43" t="n">
-        <v>2402.780666612564</v>
+        <v>2402.780666612565</v>
       </c>
       <c r="Q43" t="n">
-        <v>2476.532137525726</v>
+        <v>2476.532137525727</v>
       </c>
       <c r="R43" t="n">
-        <v>2495.142612639762</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="S43" t="n">
-        <v>2351.562104678987</v>
+        <v>2495.142612639763</v>
       </c>
       <c r="T43" t="n">
-        <v>2109.522305909177</v>
+        <v>2253.102813869953</v>
       </c>
       <c r="U43" t="n">
-        <v>1831.138321940815</v>
+        <v>1974.718829901592</v>
       </c>
       <c r="V43" t="n">
-        <v>1580.971043159538</v>
+        <v>1968.069136283913</v>
       </c>
       <c r="W43" t="n">
-        <v>1580.971043159538</v>
+        <v>1696.042731870205</v>
       </c>
       <c r="X43" t="n">
-        <v>1335.57928849295</v>
+        <v>1450.650977203617</v>
       </c>
       <c r="Y43" t="n">
-        <v>1108.159617807058</v>
+        <v>1223.231306517725</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1060.322050867115</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="C44" t="n">
-        <v>1060.322050867115</v>
+        <v>919.5873819200556</v>
       </c>
       <c r="D44" t="n">
-        <v>1060.322050867115</v>
+        <v>483.6775970945001</v>
       </c>
       <c r="E44" t="n">
-        <v>626.5473060254103</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="F44" t="n">
-        <v>449.2973178067504</v>
+        <v>49.90285225279526</v>
       </c>
       <c r="G44" t="n">
         <v>49.90285225279526</v>
@@ -7675,25 +7675,25 @@
         <v>2495.142612639763</v>
       </c>
       <c r="S44" t="n">
-        <v>2495.142612639763</v>
+        <v>2457.14243751022</v>
       </c>
       <c r="T44" t="n">
-        <v>2495.142612639763</v>
+        <v>2245.844944272482</v>
       </c>
       <c r="U44" t="n">
-        <v>2236.080579222602</v>
+        <v>1986.782910855322</v>
       </c>
       <c r="V44" t="n">
-        <v>1873.463629156428</v>
+        <v>1776.872318157321</v>
       </c>
       <c r="W44" t="n">
-        <v>1468.608174567462</v>
+        <v>1776.872318157321</v>
       </c>
       <c r="X44" t="n">
-        <v>1468.608174567462</v>
+        <v>1357.729854736632</v>
       </c>
       <c r="Y44" t="n">
-        <v>1060.322050867115</v>
+        <v>1357.729854736632</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>49.90285225279526</v>
       </c>
       <c r="I45" t="n">
-        <v>49.90285225279526</v>
+        <v>86.07360363779621</v>
       </c>
       <c r="J45" t="n">
-        <v>90.34627405869539</v>
+        <v>185.3289100816568</v>
       </c>
       <c r="K45" t="n">
-        <v>259.9894019238648</v>
+        <v>354.9720379468262</v>
       </c>
       <c r="L45" t="n">
         <v>488.0955226008676</v>
@@ -7788,19 +7788,19 @@
         <v>607.5263653260718</v>
       </c>
       <c r="D46" t="n">
-        <v>441.6483725275945</v>
+        <v>607.5263653260718</v>
       </c>
       <c r="E46" t="n">
-        <v>358.5223456998189</v>
+        <v>437.768361576809</v>
       </c>
       <c r="F46" t="n">
-        <v>181.815291661575</v>
+        <v>408.1432910235562</v>
       </c>
       <c r="G46" t="n">
-        <v>181.815291661575</v>
+        <v>243.4506569891518</v>
       </c>
       <c r="H46" t="n">
-        <v>49.90285225279526</v>
+        <v>111.538217580372</v>
       </c>
       <c r="I46" t="n">
         <v>49.90285225279526</v>
@@ -7812,19 +7812,19 @@
         <v>575.8386456160097</v>
       </c>
       <c r="L46" t="n">
-        <v>706.7833373230836</v>
+        <v>1124.993219091045</v>
       </c>
       <c r="M46" t="n">
-        <v>1304.330022108563</v>
+        <v>1521.286192798212</v>
       </c>
       <c r="N46" t="n">
-        <v>1752.096604794604</v>
+        <v>1656.066185185712</v>
       </c>
       <c r="O46" t="n">
-        <v>2296.256991764154</v>
+        <v>1780.55732292948</v>
       </c>
       <c r="P46" t="n">
-        <v>2402.780666612565</v>
+        <v>2234.587891748233</v>
       </c>
       <c r="Q46" t="n">
         <v>2476.532137525727</v>
@@ -8850,25 +8850,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371567</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>264.6463123855406</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>156.7304232042861</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9084,16 +9084,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>69.27619576520635</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>93.97993254278276</v>
+        <v>458.1582657371572</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -9102,10 +9102,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>118.2717723303419</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>444.9969971592903</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>177.1920849464593</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821538</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>72.77310710606298</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
@@ -9816,7 +9816,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>94.27612818771786</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>441.1892262915276</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10050,10 +10050,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>234.4100271482043</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,10 +10275,10 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>347.5180808962551</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>234.4100271482043</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,16 +10518,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>260.8385415177777</v>
       </c>
       <c r="P34" t="n">
-        <v>276.1009215047216</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>114.4640014625809</v>
       </c>
       <c r="L37" t="n">
-        <v>347.5180808962551</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
@@ -10764,7 +10764,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,7 +10983,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10995,13 +10995,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>123.4386479821678</v>
+        <v>146.9557997091238</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11223,19 +11223,19 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>347.518080896256</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>235.8841356914563</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11460,22 +11460,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>260.8385415177786</v>
       </c>
       <c r="N46" t="n">
-        <v>316.1480710086278</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23260,19 +23260,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>144.1016084908052</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>91.76692982224699</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>24.38369222430012</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.71309455508347</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>194.5837016750998</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>305.3969917679799</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23554,7 +23554,7 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>95.17038620779577</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>109.9025982497422</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>276.6659545687298</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>104.1554631055155</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>69.82444560763695</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -23971,16 +23971,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>24.05264488736822</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735101</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
@@ -24031,7 +24031,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>245.0954192086898</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>38.1382701058853</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>174.288014013734</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>161.4101355924346</v>
       </c>
       <c r="G23" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H23" t="n">
-        <v>24.28502197579391</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.619400782111</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>241.0470701401303</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>37.00590308179335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>361.7919123328679</v>
       </c>
       <c r="H26" t="n">
         <v>265.9270524809863</v>
@@ -24505,13 +24505,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.6626325671029</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.90867025421595</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.66821009054908</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -24685,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>152.7724190840329</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24697,7 +24697,7 @@
         <v>395.4005208984156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.1845183053605</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>152.1534556555021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>44.88274533232185</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>142.1447028811674</v>
       </c>
       <c r="T31" t="n">
-        <v>62.92162391239492</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6001441286783</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.4005208984156</v>
       </c>
       <c r="H32" t="n">
-        <v>265.9270524809863</v>
+        <v>4.323916308149251</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.62017337824728</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U32" t="n">
-        <v>45.85712524372482</v>
+        <v>256.471413082989</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>70.21097573852231</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T34" t="n">
-        <v>239.619400782111</v>
+        <v>146.9094413520805</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.8668162889409</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4005208984156</v>
+        <v>324.1717389546199</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.62017337824728</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T35" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.471413082989</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.1447028811674</v>
+        <v>126.0084365391873</v>
       </c>
       <c r="T37" t="n">
-        <v>239.619400782111</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>98.90236725896307</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>122.4907236450372</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.4005208984156</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>265.9270524809863</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>37.62017337824727</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U38" t="n">
-        <v>256.471413082989</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>352.0731409007075</v>
       </c>
     </row>
     <row r="39">
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>54.43581499279952</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0457076940604</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.593315014692</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.1447028811674</v>
+        <v>126.0084365391873</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>370.5946538977955</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4005208984156</v>
+        <v>133.2219011959655</v>
       </c>
       <c r="H41" t="n">
         <v>265.9270524809863</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.1845183053605</v>
       </c>
       <c r="U41" t="n">
         <v>256.471413082989</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.01901167430096</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.1447028811674</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>36.42034705480896</v>
+        <v>277.5027563667722</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,19 +25867,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>248.1112669584111</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4005208984156</v>
       </c>
       <c r="H44" t="n">
         <v>265.9270524809863</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.62017337824727</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.1845183053605</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>151.1792937944915</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26028,22 +26028,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>85.76565715227227</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.6111636501411</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0457076940604</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>61.01901167430096</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327230.4826135727</v>
+        <v>327230.4826135729</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327230.4826135727</v>
+        <v>327230.4826135729</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>327230.4826135727</v>
+        <v>327230.4826135728</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>327230.4826135727</v>
+        <v>327230.4826135728</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>341986.1026106256</v>
+        <v>341986.1026106254</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>341986.1026106256</v>
+        <v>341986.1026106254</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>341986.1026106254</v>
+        <v>341986.1026106256</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>341986.1026106256</v>
+        <v>341986.1026106255</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341986.1026106254</v>
+        <v>341986.1026106256</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>405623.0904895886</v>
+        <v>405623.0904895887</v>
       </c>
       <c r="C2" t="n">
         <v>405623.0904895886</v>
@@ -26322,37 +26322,37 @@
         <v>405623.0904895886</v>
       </c>
       <c r="E2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="F2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.235516267</v>
       </c>
       <c r="G2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="H2" t="n">
-        <v>243811.2355162668</v>
+        <v>243811.2355162669</v>
       </c>
       <c r="I2" t="n">
+        <v>254622.5243826111</v>
+      </c>
+      <c r="J2" t="n">
         <v>254622.524382611</v>
       </c>
-      <c r="J2" t="n">
-        <v>254622.5243826111</v>
-      </c>
       <c r="K2" t="n">
-        <v>254622.5243826111</v>
+        <v>254622.524382611</v>
       </c>
       <c r="L2" t="n">
         <v>254622.5243826111</v>
       </c>
       <c r="M2" t="n">
-        <v>254622.524382611</v>
+        <v>254622.5243826111</v>
       </c>
       <c r="N2" t="n">
         <v>254622.5243826111</v>
       </c>
       <c r="O2" t="n">
-        <v>254622.524382611</v>
+        <v>254622.5243826111</v>
       </c>
       <c r="P2" t="n">
         <v>254622.5243826111</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>29024.76432745956</v>
+        <v>29024.76432745931</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147050.7684025714</v>
+        <v>147050.7684025715</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>20967.98795247261</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="F4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="G4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247264</v>
       </c>
       <c r="H4" t="n">
-        <v>20967.98795247262</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="I4" t="n">
         <v>22142.92370669737</v>
       </c>
       <c r="J4" t="n">
+        <v>22142.92370669737</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22142.92370669736</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22142.92370669737</v>
+      </c>
+      <c r="M4" t="n">
         <v>22142.92370669738</v>
-      </c>
-      <c r="K4" t="n">
-        <v>22142.92370669738</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22142.92370669738</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22142.92370669736</v>
       </c>
       <c r="N4" t="n">
         <v>22142.92370669738</v>
       </c>
       <c r="O4" t="n">
-        <v>22142.92370669737</v>
+        <v>22142.92370669738</v>
       </c>
       <c r="P4" t="n">
         <v>22142.92370669738</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="I5" t="n">
+        <v>48681.28220745478</v>
+      </c>
+      <c r="J5" t="n">
         <v>48681.28220745477</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>48681.28220745477</v>
+      </c>
+      <c r="L5" t="n">
+        <v>48681.28220745478</v>
+      </c>
+      <c r="M5" t="n">
         <v>48681.28220745479</v>
-      </c>
-      <c r="K5" t="n">
-        <v>48681.28220745479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>48681.28220745479</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48681.28220745477</v>
       </c>
       <c r="N5" t="n">
         <v>48681.28220745479</v>
       </c>
       <c r="O5" t="n">
-        <v>48681.28220745477</v>
+        <v>48681.28220745479</v>
       </c>
       <c r="P5" t="n">
         <v>48681.28220745479</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>73264.77417775581</v>
+        <v>73232.86746025425</v>
       </c>
       <c r="C6" t="n">
-        <v>73264.77417775581</v>
+        <v>73232.86746025419</v>
       </c>
       <c r="D6" t="n">
-        <v>73264.77417775581</v>
+        <v>73232.86746025413</v>
       </c>
       <c r="E6" t="n">
-        <v>-374343.0346365194</v>
+        <v>-374896.9150797414</v>
       </c>
       <c r="F6" t="n">
-        <v>176792.1663541564</v>
+        <v>176238.2859109345</v>
       </c>
       <c r="G6" t="n">
-        <v>176792.1663541564</v>
+        <v>176238.2859109345</v>
       </c>
       <c r="H6" t="n">
-        <v>176792.1663541564</v>
+        <v>176238.2859109345</v>
       </c>
       <c r="I6" t="n">
-        <v>154773.5541409993</v>
+        <v>154254.548823153</v>
       </c>
       <c r="J6" t="n">
-        <v>183798.318468459</v>
+        <v>183279.3131506123</v>
       </c>
       <c r="K6" t="n">
-        <v>183798.318468459</v>
+        <v>183279.3131506123</v>
       </c>
       <c r="L6" t="n">
-        <v>183798.3184684589</v>
+        <v>183279.3131506123</v>
       </c>
       <c r="M6" t="n">
-        <v>36747.55006588751</v>
+        <v>36228.54474804073</v>
       </c>
       <c r="N6" t="n">
-        <v>183798.318468459</v>
+        <v>183279.3131506123</v>
       </c>
       <c r="O6" t="n">
-        <v>183798.3184684589</v>
+        <v>183279.3131506123</v>
       </c>
       <c r="P6" t="n">
-        <v>183798.318468459</v>
+        <v>183279.3131506123</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
         <v>493.353875932587</v>
@@ -26764,7 +26764,7 @@
         <v>493.353875932587</v>
       </c>
       <c r="K3" t="n">
-        <v>493.353875932587</v>
+        <v>493.3538759325869</v>
       </c>
       <c r="L3" t="n">
         <v>493.353875932587</v>
@@ -26798,37 +26798,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="G4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
+        <v>623.7856531599406</v>
+      </c>
+      <c r="J4" t="n">
         <v>623.7856531599405</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>623.7856531599405</v>
+      </c>
+      <c r="L4" t="n">
+        <v>623.7856531599406</v>
+      </c>
+      <c r="M4" t="n">
         <v>623.7856531599407</v>
-      </c>
-      <c r="K4" t="n">
-        <v>623.7856531599407</v>
-      </c>
-      <c r="L4" t="n">
-        <v>623.7856531599407</v>
-      </c>
-      <c r="M4" t="n">
-        <v>623.7856531599405</v>
       </c>
       <c r="N4" t="n">
         <v>623.7856531599407</v>
       </c>
       <c r="O4" t="n">
-        <v>623.7856531599405</v>
+        <v>623.7856531599407</v>
       </c>
       <c r="P4" t="n">
         <v>623.7856531599407</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.65194783936596</v>
+        <v>26.65194783936568</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>33.70375879800645</v>
+        <v>33.70375879800633</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619345</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,31 +31755,31 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916724</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31849,31 +31849,31 @@
         <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415869</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002368</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624556</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207636</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195197</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,13 +32803,13 @@
         <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.480827431274</v>
+        <v>156.5387708424246</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165375</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.51616232758465</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R24" t="n">
         <v>65.88601384624249</v>
@@ -32943,10 +32943,10 @@
         <v>20.31180053022956</v>
       </c>
       <c r="I26" t="n">
-        <v>76.46241327393393</v>
+        <v>76.46241327393392</v>
       </c>
       <c r="J26" t="n">
-        <v>168.3328383012399</v>
+        <v>168.3328383012398</v>
       </c>
       <c r="K26" t="n">
         <v>252.2872888267731</v>
@@ -32958,10 +32958,10 @@
         <v>348.2557739390869</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516234</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403485</v>
+        <v>334.1691572403484</v>
       </c>
       <c r="P26" t="n">
         <v>285.2056444279434</v>
@@ -32973,7 +32973,7 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S26" t="n">
-        <v>45.19518169975409</v>
+        <v>45.19518169975408</v>
       </c>
       <c r="T26" t="n">
         <v>8.682036550331253</v>
@@ -33022,10 +33022,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010197</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968289</v>
+        <v>40.85194121808138</v>
       </c>
       <c r="K27" t="n">
         <v>171.3566948133024</v>
@@ -33034,10 +33034,10 @@
         <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>172.9358057944099</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O27" t="n">
         <v>252.480827431274</v>
@@ -33058,7 +33058,7 @@
         <v>4.277285018698559</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06981422772630952</v>
+        <v>0.06981422772630951</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8896545303702388</v>
+        <v>0.8896545303702387</v>
       </c>
       <c r="H28" t="n">
-        <v>7.90983755183722</v>
+        <v>7.909837551837219</v>
       </c>
       <c r="I28" t="n">
         <v>26.75433805877046</v>
       </c>
       <c r="J28" t="n">
-        <v>62.89857529717588</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
@@ -33116,7 +33116,7 @@
         <v>139.4573915197639</v>
       </c>
       <c r="N28" t="n">
-        <v>136.1414064520204</v>
+        <v>136.1414064520203</v>
       </c>
       <c r="O28" t="n">
         <v>125.7486239836043</v>
@@ -33125,10 +33125,10 @@
         <v>107.5996715640514</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582064</v>
+        <v>74.49643526582062</v>
       </c>
       <c r="R28" t="n">
-        <v>40.00210279282909</v>
+        <v>40.00210279282908</v>
       </c>
       <c r="S28" t="n">
         <v>15.50425213381588</v>
@@ -33137,7 +33137,7 @@
         <v>3.801251175218292</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04852661074746763</v>
+        <v>0.04852661074746762</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33198,7 +33198,7 @@
         <v>353.8909164516234</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
         <v>285.2056444279434</v>
@@ -33213,7 +33213,7 @@
         <v>45.19518169975408</v>
       </c>
       <c r="T29" t="n">
-        <v>8.682036550331253</v>
+        <v>8.682036550331251</v>
       </c>
       <c r="U29" t="n">
         <v>0.1586665731642489</v>
@@ -33259,7 +33259,7 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J30" t="n">
         <v>100.2578852968288</v>
@@ -33268,16 +33268,16 @@
         <v>171.3566948133024</v>
       </c>
       <c r="L30" t="n">
-        <v>134.4681663172139</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832598</v>
       </c>
       <c r="N30" t="n">
         <v>275.994259329495</v>
       </c>
       <c r="O30" t="n">
-        <v>252.480827431274</v>
+        <v>156.5387708424248</v>
       </c>
       <c r="P30" t="n">
         <v>202.6381231165375</v>
@@ -33286,16 +33286,16 @@
         <v>135.4582189164341</v>
       </c>
       <c r="R30" t="n">
-        <v>65.88601384624249</v>
+        <v>65.88601384624248</v>
       </c>
       <c r="S30" t="n">
         <v>19.71088362806136</v>
       </c>
       <c r="T30" t="n">
-        <v>4.277285018698559</v>
+        <v>4.277285018698558</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630949</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702386</v>
       </c>
       <c r="H31" t="n">
-        <v>7.909837551837219</v>
+        <v>7.909837551837218</v>
       </c>
       <c r="I31" t="n">
-        <v>26.75433805877046</v>
+        <v>26.75433805877045</v>
       </c>
       <c r="J31" t="n">
         <v>62.89857529717587</v>
@@ -33350,7 +33350,7 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M31" t="n">
-        <v>139.4573915197639</v>
+        <v>139.4573915197638</v>
       </c>
       <c r="N31" t="n">
         <v>136.1414064520203</v>
@@ -33371,10 +33371,10 @@
         <v>15.50425213381588</v>
       </c>
       <c r="T31" t="n">
-        <v>3.801251175218292</v>
+        <v>3.801251175218291</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746761</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J33" t="n">
-        <v>40.85194121808136</v>
+        <v>4.315828707979406</v>
       </c>
       <c r="K33" t="n">
         <v>171.3566948133024</v>
@@ -33654,10 +33654,10 @@
         <v>20.31180053022956</v>
       </c>
       <c r="I35" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
         <v>252.2872888267731</v>
@@ -33669,10 +33669,10 @@
         <v>348.2557739390869</v>
       </c>
       <c r="N35" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P35" t="n">
         <v>285.2056444279434</v>
@@ -33684,7 +33684,7 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S35" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T35" t="n">
         <v>8.682036550331253</v>
@@ -33733,10 +33733,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707978966</v>
       </c>
       <c r="K36" t="n">
         <v>171.3566948133024</v>
@@ -33748,13 +33748,13 @@
         <v>268.8778623832599</v>
       </c>
       <c r="N36" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O36" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P36" t="n">
-        <v>143.2321790377898</v>
+        <v>202.6381231165375</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164341</v>
@@ -33769,7 +33769,7 @@
         <v>4.277285018698559</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H37" t="n">
-        <v>7.909837551837219</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I37" t="n">
         <v>26.75433805877046</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K37" t="n">
         <v>103.3616808921059</v>
@@ -33827,7 +33827,7 @@
         <v>139.4573915197639</v>
       </c>
       <c r="N37" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O37" t="n">
         <v>125.7486239836043</v>
@@ -33836,10 +33836,10 @@
         <v>107.5996715640514</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R37" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S37" t="n">
         <v>15.50425213381588</v>
@@ -33848,7 +33848,7 @@
         <v>3.801251175218292</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,10 +33891,10 @@
         <v>20.31180053022956</v>
       </c>
       <c r="I38" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K38" t="n">
         <v>252.2872888267731</v>
@@ -33906,10 +33906,10 @@
         <v>348.2557739390869</v>
       </c>
       <c r="N38" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P38" t="n">
         <v>285.2056444279434</v>
@@ -33921,7 +33921,7 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T38" t="n">
         <v>8.682036550331253</v>
@@ -33970,10 +33970,10 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808136</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K39" t="n">
         <v>171.3566948133024</v>
@@ -33985,13 +33985,13 @@
         <v>268.8778623832599</v>
       </c>
       <c r="N39" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O39" t="n">
         <v>252.480827431274</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165375</v>
+        <v>106.6960665276877</v>
       </c>
       <c r="Q39" t="n">
         <v>135.4582189164341</v>
@@ -34006,7 +34006,7 @@
         <v>4.277285018698559</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H40" t="n">
-        <v>7.909837551837219</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I40" t="n">
         <v>26.75433805877046</v>
       </c>
       <c r="J40" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K40" t="n">
         <v>103.3616808921059</v>
@@ -34064,7 +34064,7 @@
         <v>139.4573915197639</v>
       </c>
       <c r="N40" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O40" t="n">
         <v>125.7486239836043</v>
@@ -34073,10 +34073,10 @@
         <v>107.5996715640514</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R40" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S40" t="n">
         <v>15.50425213381588</v>
@@ -34085,7 +34085,7 @@
         <v>3.801251175218292</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,10 +34128,10 @@
         <v>20.31180053022956</v>
       </c>
       <c r="I41" t="n">
-        <v>76.46241327393392</v>
+        <v>76.46241327393393</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
         <v>252.2872888267731</v>
@@ -34143,10 +34143,10 @@
         <v>348.2557739390869</v>
       </c>
       <c r="N41" t="n">
-        <v>353.8909164516234</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403484</v>
+        <v>334.1691572403485</v>
       </c>
       <c r="P41" t="n">
         <v>285.2056444279434</v>
@@ -34158,7 +34158,7 @@
         <v>124.5854890816095</v>
       </c>
       <c r="S41" t="n">
-        <v>45.19518169975408</v>
+        <v>45.19518169975409</v>
       </c>
       <c r="T41" t="n">
         <v>8.682036550331253</v>
@@ -34210,19 +34210,19 @@
         <v>36.53611251010197</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K42" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>134.468166317214</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M42" t="n">
         <v>268.8778623832599</v>
       </c>
       <c r="N42" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O42" t="n">
         <v>252.480827431274</v>
@@ -34231,7 +34231,7 @@
         <v>202.6381231165375</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164341</v>
+        <v>39.5161623275842</v>
       </c>
       <c r="R42" t="n">
         <v>65.88601384624249</v>
@@ -34243,7 +34243,7 @@
         <v>4.277285018698559</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06981422772630951</v>
+        <v>0.06981422772630952</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8896545303702387</v>
+        <v>0.8896545303702388</v>
       </c>
       <c r="H43" t="n">
-        <v>7.909837551837219</v>
+        <v>7.90983755183722</v>
       </c>
       <c r="I43" t="n">
         <v>26.75433805877046</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717587</v>
+        <v>62.89857529717588</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921059</v>
@@ -34301,7 +34301,7 @@
         <v>139.4573915197639</v>
       </c>
       <c r="N43" t="n">
-        <v>136.1414064520203</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O43" t="n">
         <v>125.7486239836043</v>
@@ -34310,10 +34310,10 @@
         <v>107.5996715640514</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.49643526582062</v>
+        <v>74.49643526582064</v>
       </c>
       <c r="R43" t="n">
-        <v>40.00210279282908</v>
+        <v>40.00210279282909</v>
       </c>
       <c r="S43" t="n">
         <v>15.50425213381588</v>
@@ -34322,7 +34322,7 @@
         <v>3.801251175218292</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04852661074746762</v>
+        <v>0.04852661074746763</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>10.24872863022223</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808094</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060634</v>
+        <v>134.4681663172136</v>
       </c>
       <c r="M45" t="n">
         <v>268.8778623832599</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916724</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,16 +35497,16 @@
         <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447063</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247774</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>393.433091985429</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P13" t="n">
-        <v>258.5173486362896</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916787</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>167.0540751263763</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>225.90356116756</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
         <v>296.0766412766674</v>
@@ -35895,13 +35895,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916787</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35983,10 +35983,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>250.1954009551192</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816035</v>
@@ -36135,7 +36135,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548407</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
         <v>269.7982739184536</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415869</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646689</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108054</v>
+        <v>254.352550810805</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>576.9206257840676</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>252.2872888267731</v>
       </c>
       <c r="L23" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M23" t="n">
         <v>348.2557739390868</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J24" t="n">
         <v>100.2578852968288</v>
@@ -36451,13 +36451,13 @@
         <v>275.994259329495</v>
       </c>
       <c r="O24" t="n">
-        <v>252.4808274312741</v>
+        <v>156.5387708424246</v>
       </c>
       <c r="P24" t="n">
         <v>202.6381231165374</v>
       </c>
       <c r="Q24" t="n">
-        <v>39.51616232758465</v>
+        <v>135.4582189164341</v>
       </c>
       <c r="R24" t="n">
         <v>65.88601384624258</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>150.3528027362565</v>
+        <v>62.89857529717587</v>
       </c>
       <c r="K25" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L25" t="n">
-        <v>132.2673653606808</v>
+        <v>554.7015893687222</v>
       </c>
       <c r="M25" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N25" t="n">
-        <v>208.9145135580834</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O25" t="n">
-        <v>549.6569565348987</v>
+        <v>549.6569565348989</v>
       </c>
       <c r="P25" t="n">
         <v>458.6167361805583</v>
       </c>
       <c r="Q25" t="n">
-        <v>244.3881270479742</v>
+        <v>168.7725634535386</v>
       </c>
       <c r="R25" t="n">
         <v>18.79845971114725</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.04979179480253</v>
+        <v>76.04979179480252</v>
       </c>
       <c r="J26" t="n">
         <v>168.3328383012399</v>
       </c>
       <c r="K26" t="n">
-        <v>252.287288826773</v>
+        <v>252.2872888267732</v>
       </c>
       <c r="L26" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M26" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N26" t="n">
-        <v>353.8909164516235</v>
+        <v>353.8909164516233</v>
       </c>
       <c r="O26" t="n">
-        <v>334.1691572403486</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P26" t="n">
-        <v>285.2056444279435</v>
+        <v>285.2056444279433</v>
       </c>
       <c r="Q26" t="n">
         <v>214.1775612848851</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>36.53611251010197</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100.2578852968289</v>
+        <v>40.85194121808138</v>
       </c>
       <c r="K27" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L27" t="n">
-        <v>230.4102229060635</v>
+        <v>230.4102229060634</v>
       </c>
       <c r="M27" t="n">
-        <v>172.9358057944099</v>
+        <v>268.8778623832599</v>
       </c>
       <c r="N27" t="n">
-        <v>275.9942593294951</v>
+        <v>275.994259329495</v>
       </c>
       <c r="O27" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P27" t="n">
-        <v>202.6381231165376</v>
+        <v>202.6381231165374</v>
       </c>
       <c r="Q27" t="n">
         <v>135.4582189164341</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>62.8985752971759</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K28" t="n">
         <v>103.3616808921059</v>
@@ -36761,7 +36761,7 @@
         <v>132.2673653606808</v>
       </c>
       <c r="M28" t="n">
-        <v>603.5825098843225</v>
+        <v>580.6466178112914</v>
       </c>
       <c r="N28" t="n">
         <v>582.867470247621</v>
@@ -36770,13 +36770,13 @@
         <v>549.6569565348987</v>
       </c>
       <c r="P28" t="n">
-        <v>342.0096987122556</v>
+        <v>107.5996715640517</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R28" t="n">
-        <v>18.79845971114726</v>
+        <v>18.79845971114725</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>76.04979179480252</v>
       </c>
       <c r="J29" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K29" t="n">
-        <v>252.2872888267732</v>
+        <v>252.2872888267731</v>
       </c>
       <c r="L29" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M29" t="n">
         <v>348.2557739390868</v>
       </c>
       <c r="N29" t="n">
-        <v>353.8909164516238</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O29" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P29" t="n">
         <v>285.2056444279433</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.53611251010197</v>
+        <v>36.53611251010196</v>
       </c>
       <c r="J30" t="n">
         <v>100.2578852968288</v>
@@ -36916,16 +36916,16 @@
         <v>171.3566948133024</v>
       </c>
       <c r="L30" t="n">
-        <v>134.4681663172139</v>
+        <v>230.4102229060633</v>
       </c>
       <c r="M30" t="n">
-        <v>268.8778623832599</v>
+        <v>268.8778623832596</v>
       </c>
       <c r="N30" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O30" t="n">
-        <v>252.4808274312741</v>
+        <v>156.5387708424248</v>
       </c>
       <c r="P30" t="n">
         <v>202.6381231165374</v>
@@ -36995,25 +36995,25 @@
         <v>103.3616808921059</v>
       </c>
       <c r="L31" t="n">
-        <v>132.2673653606807</v>
+        <v>479.7854462569359</v>
       </c>
       <c r="M31" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N31" t="n">
-        <v>582.8674702476211</v>
+        <v>582.867470247621</v>
       </c>
       <c r="O31" t="n">
         <v>549.6569565348987</v>
       </c>
       <c r="P31" t="n">
-        <v>342.0096987122556</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q31" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R31" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114724</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37080,10 +37080,10 @@
         <v>348.2557739390868</v>
       </c>
       <c r="N32" t="n">
-        <v>353.8909164516233</v>
+        <v>353.8909164516235</v>
       </c>
       <c r="O32" t="n">
-        <v>334.1691572403481</v>
+        <v>334.1691572403483</v>
       </c>
       <c r="P32" t="n">
         <v>285.2056444279433</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J33" t="n">
-        <v>40.85194121808136</v>
+        <v>4.315828707979406</v>
       </c>
       <c r="K33" t="n">
         <v>171.3566948133024</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>62.89857529717587</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K34" t="n">
-        <v>103.3616808921059</v>
+        <v>380.8954733882025</v>
       </c>
       <c r="L34" t="n">
-        <v>554.7015893687222</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M34" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N34" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O34" t="n">
-        <v>549.6569565348987</v>
+        <v>386.5871655013821</v>
       </c>
       <c r="P34" t="n">
-        <v>383.7005930687728</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479746</v>
       </c>
       <c r="R34" t="n">
         <v>18.79845971114725</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J35" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K35" t="n">
-        <v>252.2872888267731</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L35" t="n">
         <v>312.9846905577156</v>
@@ -37320,10 +37320,10 @@
         <v>353.8909164516235</v>
       </c>
       <c r="O35" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403486</v>
       </c>
       <c r="P35" t="n">
-        <v>285.2056444279433</v>
+        <v>285.2056444279435</v>
       </c>
       <c r="Q35" t="n">
         <v>214.1775612848851</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J36" t="n">
-        <v>100.2578852968288</v>
+        <v>4.315828707978966</v>
       </c>
       <c r="K36" t="n">
         <v>171.3566948133024</v>
@@ -37402,7 +37402,7 @@
         <v>252.4808274312741</v>
       </c>
       <c r="P36" t="n">
-        <v>143.2321790377898</v>
+        <v>202.6381231165376</v>
       </c>
       <c r="Q36" t="n">
         <v>135.4582189164341</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>62.89857529717588</v>
+        <v>150.3528027362565</v>
       </c>
       <c r="K37" t="n">
-        <v>103.3616808921059</v>
+        <v>217.8256823546868</v>
       </c>
       <c r="L37" t="n">
-        <v>479.7854462569359</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M37" t="n">
         <v>139.4573915197639</v>
       </c>
       <c r="N37" t="n">
-        <v>582.867470247621</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O37" t="n">
         <v>549.6569565348987</v>
@@ -37484,10 +37484,10 @@
         <v>458.6167361805583</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R37" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J38" t="n">
-        <v>168.3328383012404</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K38" t="n">
-        <v>252.2872888267732</v>
+        <v>252.287288826773</v>
       </c>
       <c r="L38" t="n">
         <v>312.9846905577156</v>
@@ -37557,7 +37557,7 @@
         <v>353.8909164516235</v>
       </c>
       <c r="O38" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403486</v>
       </c>
       <c r="P38" t="n">
         <v>285.2056444279435</v>
@@ -37566,7 +37566,7 @@
         <v>214.1775612848851</v>
       </c>
       <c r="R38" t="n">
-        <v>124.585489081609</v>
+        <v>124.5854890816095</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J39" t="n">
-        <v>40.85194121808136</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K39" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L39" t="n">
-        <v>230.4102229060634</v>
+        <v>230.4102229060635</v>
       </c>
       <c r="M39" t="n">
         <v>268.8778623832599</v>
       </c>
       <c r="N39" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O39" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P39" t="n">
-        <v>202.6381231165374</v>
+        <v>106.6960665276877</v>
       </c>
       <c r="Q39" t="n">
         <v>135.4582189164341</v>
@@ -37703,10 +37703,10 @@
         <v>150.3528027362565</v>
       </c>
       <c r="K40" t="n">
-        <v>380.8954733882025</v>
+        <v>103.3616808921059</v>
       </c>
       <c r="L40" t="n">
-        <v>132.2673653606807</v>
+        <v>132.2673653606808</v>
       </c>
       <c r="M40" t="n">
         <v>603.5825098843225</v>
@@ -37715,16 +37715,16 @@
         <v>582.867470247621</v>
       </c>
       <c r="O40" t="n">
-        <v>125.7486239836044</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P40" t="n">
-        <v>231.0383195462193</v>
+        <v>254.555471273175</v>
       </c>
       <c r="Q40" t="n">
-        <v>244.3881270479742</v>
+        <v>74.49643526582076</v>
       </c>
       <c r="R40" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,25 +37776,25 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.04979179480252</v>
+        <v>76.04979179480253</v>
       </c>
       <c r="J41" t="n">
-        <v>168.3328383012398</v>
+        <v>168.3328383012399</v>
       </c>
       <c r="K41" t="n">
         <v>252.2872888267731</v>
       </c>
       <c r="L41" t="n">
-        <v>312.9846905577156</v>
+        <v>312.9846905577155</v>
       </c>
       <c r="M41" t="n">
-        <v>348.2557739390868</v>
+        <v>348.2557739390869</v>
       </c>
       <c r="N41" t="n">
         <v>353.8909164516235</v>
       </c>
       <c r="O41" t="n">
-        <v>334.1691572403483</v>
+        <v>334.1691572403486</v>
       </c>
       <c r="P41" t="n">
         <v>285.2056444279433</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.53611251010196</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J42" t="n">
-        <v>100.2578852968288</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K42" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L42" t="n">
-        <v>134.468166317214</v>
+        <v>230.4102229060635</v>
       </c>
       <c r="M42" t="n">
         <v>268.8778623832599</v>
       </c>
       <c r="N42" t="n">
-        <v>275.994259329495</v>
+        <v>275.9942593294951</v>
       </c>
       <c r="O42" t="n">
         <v>252.4808274312741</v>
       </c>
       <c r="P42" t="n">
-        <v>202.6381231165374</v>
+        <v>202.6381231165376</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.4582189164341</v>
+        <v>39.5161623275842</v>
       </c>
       <c r="R42" t="n">
         <v>65.88601384624258</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>62.89857529717588</v>
+        <v>62.8985752971759</v>
       </c>
       <c r="K43" t="n">
         <v>103.3616808921059</v>
       </c>
       <c r="L43" t="n">
-        <v>554.7015893687222</v>
+        <v>479.7854462569368</v>
       </c>
       <c r="M43" t="n">
-        <v>603.5825098843225</v>
+        <v>139.4573915197639</v>
       </c>
       <c r="N43" t="n">
         <v>582.867470247621</v>
       </c>
       <c r="O43" t="n">
-        <v>361.6327596750607</v>
+        <v>549.6569565348987</v>
       </c>
       <c r="P43" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q43" t="n">
         <v>74.49643526582076</v>
       </c>
       <c r="R43" t="n">
-        <v>18.79845971114725</v>
+        <v>18.79845971114726</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.53611251010197</v>
       </c>
       <c r="J45" t="n">
-        <v>40.85194121808094</v>
+        <v>100.2578852968289</v>
       </c>
       <c r="K45" t="n">
         <v>171.3566948133024</v>
       </c>
       <c r="L45" t="n">
-        <v>230.4102229060634</v>
+        <v>134.4681663172136</v>
       </c>
       <c r="M45" t="n">
         <v>268.8778623832599</v>
@@ -38180,22 +38180,22 @@
         <v>380.8954733882025</v>
       </c>
       <c r="L46" t="n">
-        <v>132.2673653606807</v>
+        <v>554.7015893687224</v>
       </c>
       <c r="M46" t="n">
-        <v>603.5825098843225</v>
+        <v>400.2959330375425</v>
       </c>
       <c r="N46" t="n">
-        <v>452.2894774606482</v>
+        <v>136.1414064520204</v>
       </c>
       <c r="O46" t="n">
-        <v>549.6569565348987</v>
+        <v>125.7486239836044</v>
       </c>
       <c r="P46" t="n">
-        <v>107.5996715640513</v>
+        <v>458.6167361805583</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.49643526582076</v>
+        <v>244.3881270479742</v>
       </c>
       <c r="R46" t="n">
         <v>18.79845971114726</v>
